--- a/Document/（气站）迪文屏幕变量分配表.xlsx
+++ b/Document/（气站）迪文屏幕变量分配表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="迪文屏幕" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="235">
   <si>
     <t>文本RTC时钟显示</t>
   </si>
@@ -606,6 +606,15 @@
   </si>
   <si>
     <t>0x1063</t>
+  </si>
+  <si>
+    <t>更新界面</t>
+  </si>
+  <si>
+    <t>更新变量图标地址</t>
+  </si>
+  <si>
+    <t>0x1064</t>
   </si>
   <si>
     <t>端子分配表</t>
@@ -752,9 +761,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -788,8 +797,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,7 +812,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -810,24 +819,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -840,18 +844,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -871,16 +874,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,14 +911,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -912,21 +935,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,7 +952,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1066,7 +1075,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,31 +1183,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,109 +1225,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,12 +1365,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1404,31 +1432,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1440,10 +1455,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1452,137 +1467,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1847,11 +1862,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1860,6 +1884,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2216,10 +2243,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:T66"/>
+  <dimension ref="C1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F55" workbookViewId="0">
-      <selection activeCell="Q69" sqref="P68:Q69"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3680,27 +3707,83 @@
       <c r="F65" s="67"/>
       <c r="G65" s="67"/>
       <c r="H65" s="67"/>
-      <c r="L65" s="88" t="s">
+      <c r="L65" s="90" t="s">
         <v>184</v>
       </c>
-      <c r="M65" s="88"/>
-      <c r="N65" s="89" t="s">
+      <c r="M65" s="90"/>
+      <c r="N65" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="O65" s="88" t="s">
+      <c r="O65" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="P65" s="88"/>
+      <c r="P65" s="90"/>
     </row>
     <row r="66" spans="12:16">
-      <c r="L66" s="90"/>
-      <c r="M66" s="91"/>
-      <c r="N66" s="91"/>
-      <c r="O66" s="91"/>
-      <c r="P66" s="92"/>
+      <c r="L66" s="93"/>
+      <c r="M66" s="94"/>
+      <c r="N66" s="94"/>
+      <c r="O66" s="94"/>
+      <c r="P66" s="95"/>
+    </row>
+    <row r="70" spans="7:11">
+      <c r="G70" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="H70" s="89"/>
+      <c r="I70" s="89"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="89"/>
+    </row>
+    <row r="71" spans="7:11">
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="89"/>
+      <c r="J71" s="89"/>
+      <c r="K71" s="89"/>
+    </row>
+    <row r="72" spans="7:11">
+      <c r="G72" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="19"/>
+    </row>
+    <row r="73" spans="7:11">
+      <c r="G73" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="7:11">
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="90"/>
+    </row>
+    <row r="75" spans="7:11">
+      <c r="G75" s="91"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="92"/>
+      <c r="J75" s="92"/>
+      <c r="K75" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="219">
+  <mergeCells count="227">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:M3"/>
@@ -3902,6 +3985,13 @@
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="O65:P65"/>
     <mergeCell ref="L66:P66"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="G75:K75"/>
     <mergeCell ref="C48:D49"/>
     <mergeCell ref="C45:D46"/>
     <mergeCell ref="I9:M10"/>
@@ -3920,6 +4010,7 @@
     <mergeCell ref="L53:Q54"/>
     <mergeCell ref="D59:H60"/>
     <mergeCell ref="L61:P62"/>
+    <mergeCell ref="G70:K71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3940,7 +4031,7 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3966,163 +4057,163 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
@@ -4132,14 +4223,14 @@
         <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12" t="s">
@@ -4148,7 +4239,7 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
@@ -4158,23 +4249,23 @@
         <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
@@ -4184,23 +4275,23 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
@@ -4210,18 +4301,18 @@
         <v>28</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="2:10">

--- a/Document/（气站）迪文屏幕变量分配表.xlsx
+++ b/Document/（气站）迪文屏幕变量分配表.xlsx
@@ -410,7 +410,29 @@
     <t>使用：数据变量显示</t>
   </si>
   <si>
-    <t>压力容差上限</t>
+    <r>
+      <t>压力容差上限(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>储罐柱体半径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>0x1040</t>
@@ -419,7 +441,29 @@
     <t>待定</t>
   </si>
   <si>
-    <t>压力容差下限</t>
+    <r>
+      <t>压力容差下限（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>储罐封头高度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>0x1042</t>
@@ -761,11 +805,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,9 +841,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,89 +850,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,9 +869,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,6 +887,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -935,9 +934,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1081,7 +1132,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,133 +1264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,16 +1417,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1392,8 +1443,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1413,26 +1479,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,10 +1506,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1467,137 +1518,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1830,6 +1881,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2245,11 +2299,14 @@
   <sheetPr/>
   <dimension ref="C1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="O79" sqref="O79"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="16" max="16" width="28.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:19">
       <c r="C1" s="13" t="s">
@@ -2753,7 +2810,7 @@
       <c r="P20" s="74"/>
       <c r="Q20" s="74"/>
       <c r="R20" s="74"/>
-      <c r="S20" s="87"/>
+      <c r="S20" s="88"/>
     </row>
     <row r="21" spans="5:11">
       <c r="E21" s="9"/>
@@ -3125,7 +3182,7 @@
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="78" t="s">
         <v>120</v>
       </c>
       <c r="P34" s="7"/>
@@ -3141,7 +3198,7 @@
       </c>
     </row>
     <row r="35" spans="15:20">
-      <c r="O35" s="7" t="s">
+      <c r="O35" s="78" t="s">
         <v>123</v>
       </c>
       <c r="P35" s="7"/>
@@ -3198,14 +3255,14 @@
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
       <c r="J38" s="40"/>
-      <c r="O38" s="78" t="s">
+      <c r="O38" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" s="41" t="s">
@@ -3260,13 +3317,13 @@
       <c r="J42" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="L42" s="79" t="s">
+      <c r="L42" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
     </row>
     <row r="43" spans="3:16">
       <c r="C43" s="46"/>
@@ -3285,11 +3342,11 @@
       <c r="J43" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
     </row>
     <row r="44" spans="3:16">
       <c r="C44" s="47" t="s">
@@ -3461,13 +3518,13 @@
       <c r="J49" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="L49" s="81" t="s">
+      <c r="L49" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
     </row>
     <row r="50" spans="3:10">
       <c r="C50" s="61" t="s">
@@ -3518,22 +3575,22 @@
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="12:17">
-      <c r="L53" s="82" t="s">
+      <c r="L53" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="82"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="83"/>
     </row>
     <row r="54" spans="12:17">
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
-      <c r="Q54" s="82"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="83"/>
     </row>
     <row r="55" spans="12:17">
       <c r="L55" s="15" t="s">
@@ -3552,10 +3609,10 @@
       </c>
     </row>
     <row r="56" spans="10:17">
-      <c r="J56" s="83" t="s">
+      <c r="J56" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="K56" s="83"/>
+      <c r="K56" s="84"/>
       <c r="L56" s="56" t="s">
         <v>170</v>
       </c>
@@ -3572,10 +3629,10 @@
       </c>
     </row>
     <row r="57" spans="10:17">
-      <c r="J57" s="84" t="s">
+      <c r="J57" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K57" s="84"/>
+      <c r="K57" s="85"/>
       <c r="L57" s="1" t="s">
         <v>170</v>
       </c>
@@ -3592,12 +3649,12 @@
       </c>
     </row>
     <row r="58" spans="12:17">
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
-      <c r="Q58" s="85"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="86"/>
+      <c r="N58" s="86"/>
+      <c r="O58" s="86"/>
+      <c r="P58" s="86"/>
+      <c r="Q58" s="86"/>
     </row>
     <row r="59" spans="4:8">
       <c r="D59" s="66" t="s">
@@ -3627,7 +3684,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="19"/>
-      <c r="L61" s="86" t="s">
+      <c r="L61" s="87" t="s">
         <v>175</v>
       </c>
       <c r="M61" s="64"/>
@@ -3707,40 +3764,40 @@
       <c r="F65" s="67"/>
       <c r="G65" s="67"/>
       <c r="H65" s="67"/>
-      <c r="L65" s="90" t="s">
+      <c r="L65" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="M65" s="90"/>
-      <c r="N65" s="90" t="s">
+      <c r="M65" s="91"/>
+      <c r="N65" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="O65" s="90" t="s">
+      <c r="O65" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="P65" s="90"/>
+      <c r="P65" s="91"/>
     </row>
     <row r="66" spans="12:16">
-      <c r="L66" s="93"/>
-      <c r="M66" s="94"/>
-      <c r="N66" s="94"/>
-      <c r="O66" s="94"/>
-      <c r="P66" s="95"/>
+      <c r="L66" s="94"/>
+      <c r="M66" s="95"/>
+      <c r="N66" s="95"/>
+      <c r="O66" s="95"/>
+      <c r="P66" s="96"/>
     </row>
     <row r="70" spans="7:11">
-      <c r="G70" s="88" t="s">
+      <c r="G70" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="H70" s="89"/>
-      <c r="I70" s="89"/>
-      <c r="J70" s="89"/>
-      <c r="K70" s="89"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="90"/>
+      <c r="J70" s="90"/>
+      <c r="K70" s="90"/>
     </row>
     <row r="71" spans="7:11">
-      <c r="G71" s="89"/>
-      <c r="H71" s="89"/>
-      <c r="I71" s="89"/>
-      <c r="J71" s="89"/>
-      <c r="K71" s="89"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
     </row>
     <row r="72" spans="7:11">
       <c r="G72" s="15" t="s">
@@ -3769,18 +3826,18 @@
       <c r="K73" s="7"/>
     </row>
     <row r="74" spans="7:11">
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="90"/>
-      <c r="J74" s="90"/>
-      <c r="K74" s="90"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
     </row>
     <row r="75" spans="7:11">
-      <c r="G75" s="91"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="92"/>
-      <c r="J75" s="92"/>
-      <c r="K75" s="96"/>
+      <c r="G75" s="92"/>
+      <c r="H75" s="93"/>
+      <c r="I75" s="93"/>
+      <c r="J75" s="93"/>
+      <c r="K75" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="227">
